--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_22_4.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_22_4.xlsx
@@ -518,221 +518,221 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_0</t>
+          <t>model_22_4_20</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999862502752169</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9991060891591939</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9998387482412244</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.999962789987506</v>
       </c>
       <c r="F2" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999229262795465</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.28347645418157e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008344265317415633</v>
       </c>
       <c r="I2" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>5.381036354900536e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>2.508726480665484e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>3.94488141778301e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.000243093950174156</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003582563961999242</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000019411376164</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003735081126791321</v>
       </c>
       <c r="P2" t="n">
-        <v>100.40878827957</v>
+        <v>104.5267061776359</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.3826970991662</v>
+        <v>154.5006149972322</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_22</t>
+          <t>model_22_4_21</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999858970477519</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.999106081946413</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9998341001764955</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999616627798379</v>
       </c>
       <c r="F3" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999206686552977</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.316448687552249e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008344332645558678</v>
       </c>
       <c r="I3" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>5.536144153263223e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>2.584723652839416e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>4.06043390305132e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002440510210757451</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003628289800377374</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000019910050233</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003782753608774745</v>
       </c>
       <c r="P3" t="n">
-        <v>100.40878827957</v>
+        <v>104.4759754843773</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.3826970991662</v>
+        <v>154.4498843039735</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_21</t>
+          <t>model_22_4_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999855679008663</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9991060724706833</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9998298226847926</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999606295393028</v>
       </c>
       <c r="F4" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999185937227978</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.347173104529782e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008344421097336388</v>
       </c>
       <c r="I4" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>5.678885779999933e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>2.654385491618212e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>4.166635635809072e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002449087550427581</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003670385680728637</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000020374728189</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003826641597903046</v>
       </c>
       <c r="P4" t="n">
-        <v>100.40878827957</v>
+        <v>104.4298341292818</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.3826970991662</v>
+        <v>154.403742948878</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_20</t>
+          <t>model_22_4_23</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999852668405826</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9991060436367353</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9998259609487812</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999596956348473</v>
       </c>
       <c r="F5" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999167197472325</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.375275760514905e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008344690249584856</v>
       </c>
       <c r="I5" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>5.80775347129072e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>2.717350018658463e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>4.262551744974591e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002456739575601255</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003708471060308959</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000020799754472</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003866348350939706</v>
       </c>
       <c r="P5" t="n">
-        <v>100.40878827957</v>
+        <v>104.3885424017161</v>
       </c>
       <c r="Q5" t="n">
-        <v>150.3826970991662</v>
+        <v>154.3624512213123</v>
       </c>
     </row>
     <row r="6">
@@ -742,437 +742,437 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999866364990244</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9991060282069462</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9998439129527904</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999640363773354</v>
       </c>
       <c r="F6" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999254308212566</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.247424157077088e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008344834279892881</v>
       </c>
       <c r="I6" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>5.208687842796234e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>2.424693959281435e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>3.816690901038835e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002420161494120087</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003531889235348537</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000018866119024</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.00368224907211595</v>
       </c>
       <c r="P6" t="n">
-        <v>100.40878827957</v>
+        <v>104.5836894282101</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.3826970991662</v>
+        <v>154.5575982478063</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_18</t>
+          <t>model_22_4_24</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.999984986265705</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.999106008669931</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9998223823208106</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999588366504016</v>
       </c>
       <c r="F7" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999149874058904</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.401466193763213e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008345016649352953</v>
       </c>
       <c r="I7" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>5.927173732854348e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>2.775263383389102e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>4.351218558121725e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002463921601293232</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003743616157892277</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000021195860181</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003902989648087528</v>
       </c>
       <c r="P7" t="n">
-        <v>100.40878827957</v>
+        <v>104.350812990212</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.3826970991662</v>
+        <v>154.3247218098082</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_17</t>
+          <t>model_22_4_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.999987039899726</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9991059861754988</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9998494074227395</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999653774307299</v>
       </c>
       <c r="F8" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999281052082485</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.209768472310027e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008345226625004191</v>
       </c>
       <c r="I8" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>5.02533516018672e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>2.334279150551163e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>3.679807155368942e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002409003834929281</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003478172612608562</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000018296612152</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003626245621537196</v>
       </c>
       <c r="P8" t="n">
-        <v>100.40878827957</v>
+        <v>104.6449929377375</v>
       </c>
       <c r="Q8" t="n">
-        <v>150.3826970991662</v>
+        <v>154.6189017573337</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_16</t>
+          <t>model_22_4_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999874703340699</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9991058953951841</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9998554028347301</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999668410078802</v>
       </c>
       <c r="F9" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999310235939465</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.169589315700345e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008346074019394004</v>
       </c>
       <c r="I9" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>4.825265839214087e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>2.235603699844486e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>3.530434769529287e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002396578028482835</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003419925899343939</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000017688940137</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.00356551922510158</v>
       </c>
       <c r="P9" t="n">
-        <v>100.40878827957</v>
+        <v>104.7125455800034</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.3826970991662</v>
+        <v>154.6864543995996</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_15</t>
+          <t>model_22_4_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999879195591647</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9991057547177674</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.999861799222618</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999684226030655</v>
       </c>
       <c r="F10" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999341504228553</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.127656124976794e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008347387181328631</v>
       </c>
       <c r="I10" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>4.611815790507118e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>2.128971386198341e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>3.37039358835273e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002383467739261968</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003358059149236049</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000017054740003</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003501018679359769</v>
       </c>
       <c r="P10" t="n">
-        <v>100.40878827957</v>
+        <v>104.7855684242314</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.3826970991662</v>
+        <v>154.7594772438276</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_14</t>
+          <t>model_22_4_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999883934708275</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.999105533725178</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9998687777706285</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999701430252768</v>
       </c>
       <c r="F11" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999375584644091</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.083418551479395e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008349450050146935</v>
       </c>
       <c r="I11" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>4.378938823244902e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>2.012979252095524e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>3.195959037670214e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002369179301078966</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003291532396133137</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000016385688244</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003431659744647901</v>
       </c>
       <c r="P11" t="n">
-        <v>100.40878827957</v>
+        <v>104.8656081949728</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3826970991662</v>
+        <v>154.839517014569</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_13</t>
+          <t>model_22_4_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999888807907756</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9991052227123711</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9998762497168791</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999719896900604</v>
       </c>
       <c r="F12" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999412104947598</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.037929373409618e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008352353218179139</v>
       </c>
       <c r="I12" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>4.129596957326926e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>1.888475750668044e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>3.009036353997485e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002355541251496152</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003221691129530605</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000152142600687</v>
+        <v>1.00001569770714</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003358845190734747</v>
       </c>
       <c r="P12" t="n">
-        <v>100.40878827957</v>
+        <v>104.9513954471452</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.3826970991662</v>
+        <v>154.9253042667415</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_23</t>
+          <t>model_22_4_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999893644990516</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9991049325260819</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9998839999474255</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999739700652011</v>
       </c>
       <c r="F13" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999450413074267</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001005963946122808</v>
+        <v>9.92777329079981e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008355061979812578</v>
       </c>
       <c r="I13" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>3.870968631990868e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>1.754957398376479e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>2.812963015183673e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002341701508051256</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003150836919105749</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000015014824868</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.00328497456988367</v>
       </c>
       <c r="P13" t="n">
-        <v>100.40878827957</v>
+        <v>105.0403486913143</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.3826970991662</v>
+        <v>155.0142575109105</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999898504476535</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9991044595362372</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9998923116303648</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999760755013298</v>
       </c>
       <c r="F14" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999491375156245</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001005963946122808</v>
+        <v>9.474161601546661e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008359477132394123</v>
       </c>
       <c r="I14" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>3.593604413415331e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>1.613007342042561e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>2.603305877728946e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002327058350638023</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003078012605813476</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000014328779783</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003209049974807433</v>
       </c>
       <c r="P14" t="n">
-        <v>100.40878827957</v>
+        <v>105.1338845924715</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3826970991662</v>
+        <v>155.1077934120677</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_10</t>
+          <t>model_22_4_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999903161936424</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9991038816896365</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.999900998541823</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999783029453222</v>
       </c>
       <c r="F15" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999534364014406</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001005963946122808</v>
+        <v>9.039408164785834e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008364871076766077</v>
       </c>
       <c r="I15" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>3.303718667528632e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>1.462831425581412e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>2.383275046555022e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002313160687755134</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003006560853331566</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000013671256034</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003134556373296851</v>
       </c>
       <c r="P15" t="n">
-        <v>100.40878827957</v>
+        <v>105.227833708401</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.3826970991662</v>
+        <v>155.2017425279972</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_9</t>
+          <t>model_22_4_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999907592449097</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9991030516633546</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9999102058662308</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999806423212736</v>
       </c>
       <c r="F16" t="n">
-        <v>0.99998528451742</v>
+        <v>0.999957978657293</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001005963946122808</v>
+        <v>8.625839254610089e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008372619007768799</v>
       </c>
       <c r="I16" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>2.996466531202456e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>1.3051089739045e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>2.150787752553478e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002298189031870478</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.002936977911835581</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000013045771892</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003062011141924835</v>
       </c>
       <c r="P16" t="n">
-        <v>100.40878827957</v>
+        <v>105.3214965897967</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.3826970991662</v>
+        <v>155.2954054093929</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_8</t>
+          <t>model_22_4_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999911466922107</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9991019578760564</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9999197405798473</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.99998306108102</v>
       </c>
       <c r="F17" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999626799225165</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001005963946122808</v>
+        <v>8.26417420599204e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008382829032080458</v>
       </c>
       <c r="I17" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>2.678289284683057e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>1.142034408230948e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>1.910161846457003e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002283629023771141</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.002874747676926105</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000012498787467</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.002997131637080919</v>
       </c>
       <c r="P17" t="n">
-        <v>100.40878827957</v>
+        <v>105.4071614925272</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3826970991662</v>
+        <v>155.3810703121234</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_7</t>
+          <t>model_22_4_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999914520014516</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9991006710148262</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9999294391752991</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999855490636407</v>
       </c>
       <c r="F18" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999674802031958</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001005963946122808</v>
+        <v>7.979181431158735e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008394841316796823</v>
       </c>
       <c r="I18" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>2.354643235090691e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>9.742927853312697e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>1.66446801021098e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002268425010739461</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.002824744489535068</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000012067762657</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.002944999710481778</v>
       </c>
       <c r="P18" t="n">
-        <v>100.40878827957</v>
+        <v>105.4773494586261</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.3826970991662</v>
+        <v>155.4512582782223</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_6</t>
+          <t>model_22_4_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999916305870302</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990992622104873</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9999390522875251</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.999988051627453</v>
       </c>
       <c r="F19" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999722622207121</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001005963946122808</v>
+        <v>7.812479632519701e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008407991886907548</v>
       </c>
       <c r="I19" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>2.03384979528525e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>8.055680877357198e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>1.419708941510485e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.000225481128518819</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.002795081328426724</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000152142600687</v>
+        <v>1.00001181564184</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.002914073727193843</v>
       </c>
       <c r="P19" t="n">
-        <v>100.40878827957</v>
+        <v>105.5195762998853</v>
       </c>
       <c r="Q19" t="n">
-        <v>150.3826970991662</v>
+        <v>155.4934851194815</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_5</t>
+          <t>model_22_4_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.999991660105895</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990974312741694</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.999948725551089</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999905369214516</v>
       </c>
       <c r="F20" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999770524726734</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001005963946122808</v>
+        <v>7.784925067984009e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008425082873746861</v>
       </c>
       <c r="I20" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>1.711049081027725e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>6.380077337190202e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>1.174528407373373e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002240861302042475</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.002790147857727975</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000011773968148</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.002908930228433756</v>
       </c>
       <c r="P20" t="n">
-        <v>100.40878827957</v>
+        <v>105.5266427558066</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3826970991662</v>
+        <v>155.5005515754029</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_4</t>
+          <t>model_22_4_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999914821445611</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990951961936241</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9999581765619969</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999929090098353</v>
       </c>
       <c r="F21" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999816957129177</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001005963946122808</v>
+        <v>7.951044161583545e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008445946369549766</v>
       </c>
       <c r="I21" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>1.395665027721655e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>4.780797857316754e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>9.368724067266655e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002227970136675334</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.002819759592870205</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000012025207679</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.002939802596445732</v>
       </c>
       <c r="P21" t="n">
-        <v>100.40878827957</v>
+        <v>105.4844145936857</v>
       </c>
       <c r="Q21" t="n">
-        <v>150.3826970991662</v>
+        <v>155.4583234132819</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_3</t>
+          <t>model_22_4_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999910371911541</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990925736645573</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9999671613213535</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999950993224286</v>
       </c>
       <c r="F22" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999860672385364</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001005963946122808</v>
+        <v>8.366388635831024e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008470426527231006</v>
       </c>
       <c r="I22" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>1.095839977096446e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>3.304072955801553e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>7.131236363383007e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002216560046358423</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.002892471025927663</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000012653377194</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003015609505741862</v>
       </c>
       <c r="P22" t="n">
-        <v>100.40878827957</v>
+        <v>105.3825764636479</v>
       </c>
       <c r="Q22" t="n">
-        <v>150.3826970991662</v>
+        <v>155.3564852832442</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_2</t>
+          <t>model_22_4_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999902578076276</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990893955440286</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9999755208952648</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999969900916645</v>
       </c>
       <c r="F23" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999900376744756</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001005963946122808</v>
+        <v>9.093908946832839e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008500092887332345</v>
       </c>
       <c r="I23" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>8.168776174361234e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>2.029302394527977e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>5.099039284444604e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002206331466131996</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003015610874571326</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000013753683349</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003143991672676914</v>
       </c>
       <c r="P23" t="n">
-        <v>100.40878827957</v>
+        <v>105.2158114301115</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3826970991662</v>
+        <v>155.1897202497077</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_1</t>
+          <t>model_22_4_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999890514642815</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990857898423462</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9999828594184452</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999984294381795</v>
       </c>
       <c r="F24" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999933779417334</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.021997750798258e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008533750529818143</v>
       </c>
       <c r="I24" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>5.719881332824133e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>1.058884360531052e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>3.389382846677592e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002198918717646357</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003196869954812453</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000015456756308</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003332967327221929</v>
       </c>
       <c r="P24" t="n">
-        <v>100.40878827957</v>
+        <v>104.9823323479512</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.3826970991662</v>
+        <v>154.9562411675475</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_11</t>
+          <t>model_22_4_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999873265652056</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990814488305629</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9999890056762464</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999992449307366</v>
       </c>
       <c r="F25" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999959186591908</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.183009508107922e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008574271969331354</v>
       </c>
       <c r="I25" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>3.668850266497916e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>5.090732651974683e-07</v>
       </c>
       <c r="K25" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>2.088961765847692e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002194313339010854</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003439490526383118</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000017891907945</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003585916758818178</v>
       </c>
       <c r="P25" t="n">
-        <v>100.40878827957</v>
+        <v>104.6897276854429</v>
       </c>
       <c r="Q25" t="n">
-        <v>150.3826970991662</v>
+        <v>154.6636365050392</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_22_4_24</t>
+          <t>model_22_4_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999849604670409</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990766117888211</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999999802336252</v>
+        <v>0.9999935229032839</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999407504458493</v>
+        <v>0.9999992069051511</v>
       </c>
       <c r="F26" t="n">
-        <v>0.99998528451742</v>
+        <v>0.9999973661840843</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.40387438581408e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008619423630774977</v>
       </c>
       <c r="I26" t="n">
-        <v>2.685685593785038e-08</v>
+        <v>2.161433349196155e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>2.659629973653803e-05</v>
+        <v>5.347103953720377e-07</v>
       </c>
       <c r="K26" t="n">
-        <v>1.331157829623794e-05</v>
+        <v>1.348071872284096e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002311833323593293</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003746831175558994</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000021232281825</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003906341535712322</v>
       </c>
       <c r="P26" t="n">
-        <v>100.40878827957</v>
+        <v>104.3473792643251</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3826970991662</v>
+        <v>154.3212880839214</v>
       </c>
     </row>
   </sheetData>
